--- a/data/EC15_LIST.xlsx
+++ b/data/EC15_LIST.xlsx
@@ -1,31 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ugentbe-my.sharepoint.com/personal/gaston_mendozaveirana_ugent_be/Documents/Documentos/PhD/Magnetics/Magnetism_code/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_F25DC773A252ABDACC10483AA1DE51AE5ADE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C35663D9-7C19-4403-8B0B-1D7820E2B9D6}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABDACC10483AA1DE51AE5ADE58F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{57E9FF5B-0AAA-46BE-AC77-DBF56A37868A}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>SAMPLE</t>
   </si>
@@ -250,6 +261,12 @@
   </si>
   <si>
     <t>Lommel2-12</t>
+  </si>
+  <si>
+    <t>EC15</t>
+  </si>
+  <si>
+    <t>NOTE: sample names use the nomenclature of Ms samples, but the EC15 data was indeed taken from bulk samples. Normally, these names should be the corresponding bulk samples names. This was correctly introduced in the general database</t>
   </si>
 </sst>
 </file>
@@ -639,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,596 +668,821 @@
     <col min="2" max="2" width="13.28515625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>1.6980000000000002E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>1.4730000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>1.4700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>1.4419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>1.5440000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1.3090000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>1.507E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1.2750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1.4450000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.11410000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>7.8100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>7.6300000000000005E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>7.0800000000000004E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7.7099999999999998E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>4.13E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>2.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2.1100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B22" s="4">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2.6000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="4">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>2.8700000000000002E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="4">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1.9300000000000001E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="4">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>8.8800000000000007E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="4">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>6.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>4.0299999999999997E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="4">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <v>5.8799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B29" s="4">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>4.6500000000000005E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="4">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <v>1.6899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <v>1.3500000000000001E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <v>1.01E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C33">
+        <v>2.6199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <v>9.0000000000000008E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C35">
+        <v>8.5900000000000006E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="4">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36">
+        <v>1.8419999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="4">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37">
+        <v>3.9900000000000005E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C38">
+        <v>1.8010000000000002E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="4">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C39">
+        <v>1.779E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="4">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C40">
+        <v>1.7330000000000002E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="4">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C41">
+        <v>1.302E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="4">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C42">
+        <v>1.477E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="4">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C43">
+        <v>1.2330000000000001E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="4">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C44">
+        <v>1.0529999999999999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B45" s="4">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C45">
+        <v>7.1400000000000005E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B46" s="4">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C46">
+        <v>6.3899999999999998E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B47" s="4">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C47">
+        <v>4.1400000000000005E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B48" s="4">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48">
+        <v>3.6600000000000005E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B49" s="4">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49">
+        <v>3.2500000000000003E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B50" s="4">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C50">
+        <v>2.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B51" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C51">
+        <v>2.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B52" s="4">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C52">
+        <v>2.7100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B53" s="4">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C53">
+        <v>6.1100000000000008E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B54" s="4">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54">
+        <v>9.2099999999999994E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B55" s="4">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55">
+        <v>8.7500000000000008E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B56" s="4">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56">
+        <v>8.4600000000000005E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B57" s="4">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57">
+        <v>1.3100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B58" s="4">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58">
+        <v>3.8600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B59" s="4">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B60" s="4">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60">
+        <v>5.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B61" s="4">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61">
+        <v>3.5400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B62" s="4">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>1.9100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B63" s="4">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63">
+        <v>2.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B64" s="4">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>1.8000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="4">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>1.75E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B66" s="4">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>6.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B67" s="4">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>1.235E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B68" s="4">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>5.8999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B69" s="4">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>3.2799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B70" s="4">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>1.1540000000000002E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B71" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71">
+        <v>1.4080000000000002E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B72" s="4">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C72">
+        <v>1.2750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B73" s="4">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C73">
+        <v>9.6799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B74" s="4">
         <v>73</v>
+      </c>
+      <c r="C74">
+        <v>1.4919999999999999E-2</v>
       </c>
     </row>
   </sheetData>
